--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Login Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Selected Vehicle Page" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>9958592171</t>
   </si>
@@ -23,6 +24,12 @@
   </si>
   <si>
     <t>995859</t>
+  </si>
+  <si>
+    <t>Goodlife nonmem</t>
+  </si>
+  <si>
+    <t>Book service FSC</t>
   </si>
 </sst>
 </file>
@@ -365,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -391,6 +398,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -17,9 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>9958592171</t>
-  </si>
-  <si>
     <t>8800996793</t>
   </si>
   <si>
@@ -30,6 +27,9 @@
   </si>
   <si>
     <t>Book service FSC</t>
+  </si>
+  <si>
+    <t>2537461015</t>
   </si>
 </sst>
 </file>
@@ -375,27 +375,27 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
@@ -411,7 +411,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -421,12 +421,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>8800996793</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>2537461015</t>
+  </si>
+  <si>
+    <t>8800996794</t>
   </si>
 </sst>
 </file>
@@ -374,8 +377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,6 +401,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
@@ -410,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="2300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
     <sheet name="Selected Vehicle Page" sheetId="2" r:id="rId2"/>
+    <sheet name="Book Service" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -39,13 +40,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,9 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,13 +390,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -424,7 +437,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -443,4 +456,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="2300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="2300"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
     <sheet name="Selected Vehicle Page" sheetId="2" r:id="rId2"/>
     <sheet name="Book Service" sheetId="3" r:id="rId3"/>
+    <sheet name="My Profile" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -390,13 +391,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
@@ -462,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -477,4 +478,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4333F-66AB-435D-B5C8-6A2EE0B6638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14350" windowHeight="2300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>8800996793</t>
   </si>
@@ -35,13 +36,79 @@
   </si>
   <si>
     <t>8800996794</t>
+  </si>
+  <si>
+    <t>Valid mob number</t>
+  </si>
+  <si>
+    <t>Invalid mob number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minumum length mob number </t>
+  </si>
+  <si>
+    <t>Valid Full Name</t>
+  </si>
+  <si>
+    <t>Valid Email</t>
+  </si>
+  <si>
+    <t>Valid DOB</t>
+  </si>
+  <si>
+    <t>Valid Address</t>
+  </si>
+  <si>
+    <t>Valid Pincode</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>gunjan007@gmail.com</t>
+  </si>
+  <si>
+    <t>Mumbai Colony 1152</t>
+  </si>
+  <si>
+    <t>110091</t>
+  </si>
+  <si>
+    <t>01-02-2023</t>
+  </si>
+  <si>
+    <t>Invalid Full Name</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>Invalid DOB</t>
+  </si>
+  <si>
+    <t>Invalid Address</t>
+  </si>
+  <si>
+    <t>Invalid Pincode</t>
+  </si>
+  <si>
+    <t>Abhay@0000001</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>f30, mumbai, bandra east +++++++@#%^^&amp;%^*!@#$@#$%^*^(</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +125,20 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,16 +158,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,6 +269,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -213,6 +321,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,39 +513,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -429,7 +564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -460,7 +595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -481,15 +616,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="57.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{86BA8BCA-8DBA-4CBE-A7EB-756739F75076}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{0845EB4D-D4B2-4E47-A392-66DCDC5D0744}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>